--- a/biology/Zoologie/Goniocidaris_tubaria/Goniocidaris_tubaria.xlsx
+++ b/biology/Zoologie/Goniocidaris_tubaria/Goniocidaris_tubaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniocidaris tubaria est une espèce d'oursins de la famille des Cidaridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniocidaris tubaria est un petit oursin trapu, qui mesure 17 cm de large au maximum, piquants compris[2]. Ceux-ci sont particulièrement caractéristiques, recouverts de piquants secondaires qui forment, à la pointe, des structures fusionnées et évasées. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniocidaris tubaria est un petit oursin trapu, qui mesure 17 cm de large au maximum, piquants compris. Ceux-ci sont particulièrement caractéristiques, recouverts de piquants secondaires qui forment, à la pointe, des structures fusionnées et évasées. 
 			Spécimen du Muséum National d'Histoire Naturelle
 			Test nettoyé (idem)
 </t>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cet oursin dans le sud de l'Australie, dans les écosystèmes riches en algues[2], entre 18 et 200 m de profondeur[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cet oursin dans le sud de l'Australie, dans les écosystèmes riches en algues, entre 18 et 200 m de profondeur. 
 </t>
         </is>
       </c>
